--- a/その他提出物/(サポートEx)テスト計画票.xlsx
+++ b/その他提出物/(サポートEx)テスト計画票.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\②タスク管理(Java)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990652B2-AFD7-4FB2-8BF2-0BBFD533E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453AD4E2-CF4D-4630-8DA1-7DC6C92E6AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -76,13 +74,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,29 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ゆうこう」に新しいデータ入力すると、
-現在のタスク一覧の値に反映される</t>
-    <rPh sb="7" eb="8">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新したいタスクの「教科名」を変更できること</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -542,6 +510,32 @@
     </rPh>
     <rPh sb="11" eb="14">
       <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「期限」に新しいデータ入力すると、
+現在のタスク一覧の値に反映される</t>
+    <rPh sb="1" eb="3">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1044,31 +1038,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA8B919-26CA-44AB-9E06-FD6E04B2CBDC}">
-  <dimension ref="A1:J11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="75.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="22.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
@@ -1091,209 +1088,197 @@
       <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>45658</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
       <c r="H10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1310,5 +1295,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/その他提出物/(サポートEx)テスト計画票.xlsx
+++ b/その他提出物/(サポートEx)テスト計画票.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\②タスク管理(Java)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453AD4E2-CF4D-4630-8DA1-7DC6C92E6AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF5841-58CA-400B-815E-97D63E208E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
   </bookViews>
@@ -425,23 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「現在のタスク一覧」に登録した内容でタスクが表示される</t>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「現在のタスク一覧」に登録した内容のタスクが削除される</t>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メインページの「現在のタスク一覧」から更新したいタスクの「更新」ボタンを押下する
 と、選択したタスクの内容が「タスクの更新」に反映されるため、そこで新しい値を入力して「更新」ボタンを押下する</t>
     <rPh sb="8" eb="10">
@@ -501,19 +484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「タスクの更新」の値が初期値になる</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ショキチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「期限」に新しいデータ入力すると、
 現在のタスク一覧の値に反映される</t>
     <rPh sb="1" eb="3">
@@ -536,6 +506,36 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「現在のタスク一覧」に登録した内容でタスクに追加される</t>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「現在のタスク一覧」から選択したタスクが削除される</t>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タスクの更新」の値がリセットされる</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -690,10 +690,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1061,8 +1061,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>37</v>
+      <c r="B1" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1099,22 +1099,22 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1123,30 +1123,30 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>34</v>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>24</v>
@@ -1155,21 +1155,21 @@
         <v>10</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1178,38 +1178,38 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="6">
         <v>45658</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1218,80 +1218,80 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="H5:H8"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="H5:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/その他提出物/(サポートEx)テスト計画票.xlsx
+++ b/その他提出物/(サポートEx)テスト計画票.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\②タスク管理(Java)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF5841-58CA-400B-815E-97D63E208E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C1B2D-6F6B-4EF8-AE75-4C8A09ABB24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -536,6 +536,72 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「現在のタスク一覧」にないタスクは更新をしても反映されないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインページの「現在のタスク一覧」に追加されていない値を「タスクの更新」に入力して「更新」ボタンを押下する</t>
+    <rPh sb="8" eb="10">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科名：数学
+タスク：二次関数の復習
+期限：2024-12-21</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウガク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ニジカンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「現在のタスク一覧」に反映されない</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,7 +644,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -655,13 +721,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +787,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -703,6 +801,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,31 +1154,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="75.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -1099,10 +1212,10 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1123,10 +1236,10 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -1135,17 +1248,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1154,82 +1267,82 @@
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="6">
         <v>45658</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1241,57 +1354,80 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="10" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I11" s="7" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="H5:H8"/>
+  <mergeCells count="11">
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
